--- a/public/data/profit/profit_table_burkina_faso.xlsx
+++ b/public/data/profit/profit_table_burkina_faso.xlsx
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.32</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1489,22 +1489,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-11.74</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-18.75</v>
+        <v>-11.49</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-11.69</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-11.69</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-11.69</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>-11.57</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-3.43</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-22.21</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-20.49</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-10.55</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-9.36</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-5.74</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-5.85</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3569,22 +3569,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>-7.32</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-4.93</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-6.59</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>-6.84</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -3596,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-6.83</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>-5.97</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-8.37</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-6.51</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-14.36</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.53</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.51</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-11.5</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-5.6</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
